--- a/Finflux Automation Excels/Client/5040-CompondingPenalityCharge-MakeRepayment-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5040-CompondingPenalityCharge-MakeRepayment-Disb2ndTranche.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>900</v>
+        <v>555</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>40</v>
@@ -1880,20 +1880,20 @@
       <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9">
+        <v>57.8</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>57.8</v>
-      </c>
+      <c r="I2" s="9"/>
       <c r="J2" s="8">
         <v>5729.18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>899</v>
+        <v>554</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>40</v>
@@ -1904,20 +1904,20 @@
       <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9">
+        <v>57.8</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9">
-        <v>57.8</v>
-      </c>
+      <c r="I3" s="9"/>
       <c r="J3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>898</v>
+        <v>553</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -1928,20 +1928,20 @@
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>45.23</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>45.23</v>
-      </c>
+      <c r="I4" s="9"/>
       <c r="J4" s="8">
         <v>5671.38</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>897</v>
+        <v>552</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>40</v>
@@ -1952,20 +1952,20 @@
       <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>45.23</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>45.23</v>
-      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>896</v>
+        <v>551</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>40</v>
@@ -1976,20 +1976,20 @@
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>11.64</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>11.64</v>
-      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="8">
         <v>5626.15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>891</v>
+        <v>546</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
@@ -2000,20 +2000,20 @@
       <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7">
+      <c r="E7" s="7">
         <v>5000</v>
       </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="8">
         <v>5637.79</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>885</v>
+        <v>540</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>40</v>
@@ -2024,20 +2024,20 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>13.2</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>13.2</v>
-      </c>
+      <c r="I8" s="9"/>
       <c r="J8" s="9">
         <v>637.79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>884</v>
+        <v>539</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>40</v>
@@ -2048,20 +2048,20 @@
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>13.2</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>13.2</v>
-      </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>883</v>
+        <v>538</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>40</v>
@@ -2072,20 +2072,20 @@
       <c r="D10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7">
+      <c r="E10" s="7">
         <v>1000</v>
       </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="9">
         <v>624.59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>890</v>
+        <v>545</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>40</v>
@@ -2096,20 +2096,20 @@
       <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>200</v>
-      </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="8">
         <v>1624.59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>869</v>
+        <v>524</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>40</v>
@@ -2120,20 +2120,20 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>28.06</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <v>28.06</v>
-      </c>
+      <c r="I12" s="9"/>
       <c r="J12" s="8">
         <v>1824.59</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>868</v>
+        <v>523</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>40</v>
@@ -2144,20 +2144,20 @@
       <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>28.06</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <v>28.06</v>
-      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>867</v>
+        <v>522</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>40</v>
@@ -2168,20 +2168,20 @@
       <c r="D14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>802.29</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>802.29</v>
-      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="8">
         <v>1796.53</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>858</v>
+        <v>513</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>40</v>
@@ -2192,20 +2192,20 @@
       <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7">
+      <c r="E15" s="7">
         <v>1000</v>
       </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="8">
         <v>2598.8200000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>849</v>
+        <v>504</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>40</v>
@@ -2216,20 +2216,20 @@
       <c r="D16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>600</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>600</v>
-      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="8">
         <v>3598.82</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>840</v>
+        <v>495</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>40</v>
@@ -2240,20 +2240,20 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>42.16</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>42.16</v>
-      </c>
+      <c r="I17" s="9"/>
       <c r="J17" s="8">
         <v>4198.82</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>839</v>
+        <v>494</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>40</v>
@@ -2264,20 +2264,20 @@
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>42.16</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>42.16</v>
-      </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>838</v>
+        <v>493</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>40</v>
@@ -2288,20 +2288,20 @@
       <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>887.72</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>887.72</v>
-      </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="8">
         <v>4156.66</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>827</v>
+        <v>482</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>40</v>
@@ -2312,20 +2312,20 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <v>44.38</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="9">
-        <v>44.38</v>
-      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="8">
         <v>5044.38</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>826</v>
+        <v>481</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -2336,20 +2336,20 @@
       <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>44.38</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>44.38</v>
-      </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>825</v>
+        <v>480</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>40</v>
@@ -2360,13 +2360,13 @@
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7">
+      <c r="E22" s="7">
         <v>5000</v>
       </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="7">
         <v>5000</v>
       </c>
